--- a/计划模板.xlsx
+++ b/计划模板.xlsx
@@ -4,35 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="技术状态管理" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">技术状态管理!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>任务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前置任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,6 +62,34 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,16 +142,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -164,6 +248,86 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -174,51 +338,161 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -709,114 +983,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="28.75" customWidth="1"/>
+    <col min="13" max="13" width="12.375" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="16.75" customWidth="1"/>
+    <col min="17" max="17" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G2">
+        <f>F2-E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G3">
+        <f t="shared" ref="G3:G50" si="0">F3-E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+  <conditionalFormatting sqref="L2:L1048576">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"需求固化"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
-      <formula>"需求变更"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"方案固化"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+      <formula>"方案变更"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
-      <formula>"方案变更"</formula>
+  <conditionalFormatting sqref="N2">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>"方案固化"</formula>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"开发中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>"准备中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"准备中"</formula>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+      <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"开发中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"已完成"</formula>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"需求变更,需求固化"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
       <formula1>"方案变更,方案固化"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
       <formula1>"准备中,开发中,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
       <formula1>"未开始,测试中,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576">
       <formula1>"材料准备,环境确认,部署中，已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -826,13 +1401,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"需求固化"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"需求固化"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
+      <formula1>"材料准备,环境确认,部署中，已完成"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
+      <formula1>"未开始,测试中,已完成"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+      <formula1>"准备中,开发中,已完成"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>"方案变更,方案固化"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"需求变更,需求固化"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
